--- a/TestDocs/Check.xlsx
+++ b/TestDocs/Check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="124">
   <si>
     <t>Номер</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Проверка кнопки "Отмена" модального окна удаление новости</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Не происходит переход по ссылке.</t>
+  </si>
+  <si>
+    <t>Не происходит корректной сортировки.  Новости не сортируются не по категории, не по дате создания.</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -811,6 +826,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.2">
@@ -826,7 +842,9 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -850,7 +868,7 @@
       <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -872,7 +890,7 @@
       <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -894,7 +912,7 @@
       <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -916,7 +934,7 @@
       <c r="D5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -938,7 +956,7 @@
       <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -960,7 +978,7 @@
       <c r="D7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -982,7 +1000,7 @@
       <c r="D8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1004,7 +1022,7 @@
       <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1026,7 +1044,7 @@
       <c r="D10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1048,7 +1066,7 @@
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1070,7 +1088,7 @@
       <c r="D12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1092,7 +1110,7 @@
       <c r="D13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1114,7 +1132,7 @@
       <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1136,7 +1154,7 @@
       <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1158,7 +1176,7 @@
       <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1180,7 +1198,7 @@
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1199,8 +1217,10 @@
       <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1224,7 +1244,7 @@
       <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1246,7 +1266,7 @@
       <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1257,7 +1277,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="28.2">
+    <row r="21" spans="1:14" ht="42">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1268,7 +1288,7 @@
       <c r="D21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1279,7 +1299,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="28.2">
+    <row r="22" spans="1:14" ht="42">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1290,7 +1310,7 @@
       <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1312,7 +1332,7 @@
       <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1334,7 +1354,7 @@
       <c r="D24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1358,7 +1378,7 @@
       <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1380,7 +1400,7 @@
       <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1402,7 +1422,7 @@
       <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1424,7 +1444,7 @@
       <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1446,7 +1466,7 @@
       <c r="D29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1468,7 +1488,7 @@
       <c r="D30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1490,7 +1510,7 @@
       <c r="D31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1512,7 +1532,7 @@
       <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1534,7 +1554,7 @@
       <c r="D33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1556,7 +1576,7 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1578,7 +1598,7 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1600,7 +1620,7 @@
       <c r="D36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1622,7 +1642,7 @@
       <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1644,7 +1664,7 @@
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1666,7 +1686,7 @@
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1688,7 +1708,7 @@
       <c r="D40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1710,7 +1730,7 @@
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1732,7 +1752,7 @@
       <c r="D42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1754,7 +1774,7 @@
       <c r="D43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1776,7 +1796,7 @@
       <c r="D44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1798,7 +1818,7 @@
       <c r="D45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1820,7 +1840,7 @@
       <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1842,7 +1862,7 @@
       <c r="D47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1864,7 +1884,7 @@
       <c r="D48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1886,7 +1906,7 @@
       <c r="D49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1908,7 +1928,7 @@
       <c r="D50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1930,7 +1950,7 @@
       <c r="D51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1952,7 +1972,7 @@
       <c r="D52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1974,7 +1994,7 @@
       <c r="D53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1996,7 +2016,7 @@
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2018,7 +2038,7 @@
       <c r="D55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2040,7 +2060,7 @@
       <c r="D56" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2062,7 +2082,7 @@
       <c r="D57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2084,7 +2104,7 @@
       <c r="D58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2106,7 +2126,7 @@
       <c r="D59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2128,7 +2148,7 @@
       <c r="D60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2150,7 +2170,7 @@
       <c r="D61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2172,7 +2192,7 @@
       <c r="D62" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2194,7 +2214,7 @@
       <c r="D63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2216,7 +2236,7 @@
       <c r="D64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2238,7 +2258,7 @@
       <c r="D65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2260,7 +2280,7 @@
       <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2282,7 +2302,7 @@
       <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2304,7 +2324,7 @@
       <c r="D68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2326,7 +2346,7 @@
       <c r="D69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -2348,7 +2368,7 @@
       <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2370,7 +2390,7 @@
       <c r="D71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2392,7 +2412,7 @@
       <c r="D72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2414,7 +2434,7 @@
       <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2436,7 +2456,7 @@
       <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2458,7 +2478,7 @@
       <c r="D75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2482,7 +2502,7 @@
       <c r="D76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2493,7 +2513,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="28.2">
+    <row r="77" spans="1:14" ht="129.6">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2504,7 +2524,9 @@
       <c r="D77" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2526,7 +2548,7 @@
       <c r="D78" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2548,7 +2570,7 @@
       <c r="D79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2570,7 +2592,7 @@
       <c r="D80" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2592,7 +2614,7 @@
       <c r="D81" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2614,7 +2636,7 @@
       <c r="D82" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2636,7 +2658,7 @@
       <c r="D83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2658,7 +2680,7 @@
       <c r="D84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2680,7 +2702,7 @@
       <c r="D85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2702,7 +2724,7 @@
       <c r="D86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -2724,7 +2746,7 @@
       <c r="D87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -2746,7 +2768,7 @@
       <c r="D88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -2768,7 +2790,7 @@
       <c r="D89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -2790,7 +2812,7 @@
       <c r="D90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -2812,7 +2834,7 @@
       <c r="D91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -2834,7 +2856,7 @@
       <c r="D92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -2856,7 +2878,7 @@
       <c r="D93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2878,7 +2900,7 @@
       <c r="D94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2900,7 +2922,7 @@
       <c r="D95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -2922,7 +2944,7 @@
       <c r="D96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -2944,7 +2966,7 @@
       <c r="D97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -2966,7 +2988,7 @@
       <c r="D98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="12"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -2988,7 +3010,7 @@
       <c r="D99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -3010,7 +3032,7 @@
       <c r="D100" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -3032,7 +3054,7 @@
       <c r="D101" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -3054,7 +3076,7 @@
       <c r="D102" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -3076,7 +3098,7 @@
       <c r="D103" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -3098,7 +3120,7 @@
       <c r="D104" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -3120,7 +3142,7 @@
       <c r="D105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3142,7 +3164,7 @@
       <c r="D106" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -3164,7 +3186,7 @@
       <c r="D107" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -3186,7 +3208,7 @@
       <c r="D108" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -3208,7 +3230,7 @@
       <c r="D109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -3230,7 +3252,7 @@
       <c r="D110" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -3252,7 +3274,7 @@
       <c r="D111" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -3274,7 +3296,7 @@
       <c r="D112" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -3296,7 +3318,7 @@
       <c r="D113" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -3318,7 +3340,7 @@
       <c r="D114" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -3340,7 +3362,7 @@
       <c r="D115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3362,7 +3384,7 @@
       <c r="D116" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3384,7 +3406,7 @@
       <c r="D117" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3408,7 +3430,7 @@
       <c r="D118" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3419,7 +3441,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="42">
+    <row r="119" spans="1:14" ht="43.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3430,7 +3452,9 @@
       <c r="D119" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3441,7 +3465,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="42">
+    <row r="120" spans="1:14" ht="43.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3452,7 +3476,9 @@
       <c r="D120" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3476,7 +3502,7 @@
       <c r="D121" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3498,7 +3524,7 @@
       <c r="D122" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3509,7 +3535,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="28.2">
+    <row r="123" spans="1:14" ht="42">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3522,7 +3548,7 @@
       <c r="D123" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
